--- a/templates/project_import_template.xlsx
+++ b/templates/project_import_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01ctf-study\webserver\PHPTutorial\WWW\ownwork\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE9A87-3550-4895-8BCE-708B03099ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2148" windowWidth="21120" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3345" windowWidth="21120" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,55 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>项目负责人工号</t>
-  </si>
-  <si>
-    <t>项目01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目02</t>
-  </si>
-  <si>
-    <t>项目03</t>
-  </si>
-  <si>
-    <t>项目04</t>
-  </si>
-  <si>
-    <t>项目05</t>
-  </si>
-  <si>
-    <t>项目06</t>
-  </si>
-  <si>
-    <t>项目07</t>
-  </si>
-  <si>
-    <t>项目08</t>
-  </si>
-  <si>
-    <t>项目09</t>
-  </si>
-  <si>
-    <t>项目10</t>
-  </si>
-  <si>
-    <t>项目11</t>
-  </si>
-  <si>
-    <t>项目12</t>
-  </si>
-  <si>
-    <t>项目13</t>
-  </si>
-  <si>
-    <t>项目14</t>
-  </si>
-  <si>
-    <t>项目15</t>
   </si>
   <si>
     <t>项目16</t>
@@ -99,54 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U10010</t>
-  </si>
-  <si>
-    <t>U10011</t>
-  </si>
-  <si>
-    <t>U10012</t>
-  </si>
-  <si>
-    <t>U10013</t>
-  </si>
-  <si>
-    <t>U10014</t>
-  </si>
-  <si>
-    <t>U10015</t>
-  </si>
-  <si>
-    <t>U10016</t>
-  </si>
-  <si>
-    <t>U10017</t>
-  </si>
-  <si>
-    <t>U10018</t>
-  </si>
-  <si>
-    <t>U10019</t>
-  </si>
-  <si>
-    <t>U10020</t>
-  </si>
-  <si>
-    <t>U10021</t>
-  </si>
-  <si>
-    <t>U10022</t>
-  </si>
-  <si>
-    <t>U10023</t>
-  </si>
-  <si>
-    <t>U10024</t>
-  </si>
-  <si>
-    <t>U10025</t>
-  </si>
-  <si>
     <t>项目名称</t>
   </si>
   <si>
@@ -157,13 +62,58 @@
   </si>
   <si>
     <t>项目总金额</t>
+  </si>
+  <si>
+    <t>项目17</t>
+  </si>
+  <si>
+    <t>项目18</t>
+  </si>
+  <si>
+    <t>项目19</t>
+  </si>
+  <si>
+    <t>项目20</t>
+  </si>
+  <si>
+    <t>项目21</t>
+  </si>
+  <si>
+    <t>项目22</t>
+  </si>
+  <si>
+    <t>项目23</t>
+  </si>
+  <si>
+    <t>项目24</t>
+  </si>
+  <si>
+    <t>项目25</t>
+  </si>
+  <si>
+    <t>项目26</t>
+  </si>
+  <si>
+    <t>项目27</t>
+  </si>
+  <si>
+    <t>项目28</t>
+  </si>
+  <si>
+    <t>项目29</t>
+  </si>
+  <si>
+    <t>项目30</t>
+  </si>
+  <si>
+    <t>项目31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +127,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2937"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -216,11 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,307 +443,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>50000</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1001013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>50000</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1001014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>30000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1001015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>30000</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1001016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1001017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7">
         <v>10000</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1001018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>10000</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1001019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>10000</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1001020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>50000</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1001021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>50000</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1001022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>30000</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1001023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>30000</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1001024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>10000</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1001025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>10000</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1001026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>10000</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1001027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>10000</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
+      <c r="E17">
+        <v>1001028</v>
       </c>
     </row>
   </sheetData>
